--- a/Country Data.xlsx
+++ b/Country Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dansz\PycharmProjects\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8048A57-907C-4E69-BA06-0DF361E57ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573D5DEA-2223-4DF8-8069-69C856CA5D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43E7AB90-810D-408F-B843-93C46A11D616}"/>
   </bookViews>
@@ -946,13 +946,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>541877</xdr:colOff>
+      <xdr:colOff>513302</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>46649</xdr:rowOff>
     </xdr:to>
@@ -977,7 +977,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11029950" y="238125"/>
+          <a:off x="11001375" y="238125"/>
           <a:ext cx="8380952" cy="7809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1742,7 +1742,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
